--- a/manual_download/DEGES/GB_2024.xlsx
+++ b/manual_download/DEGES/GB_2024.xlsx
@@ -182,6 +182,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -202,7 +203,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,11 +258,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,11 +266,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,8 +412,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,10 +426,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -465,10 +465,10 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>75918.7</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>47856.7</v>
       </c>
     </row>
@@ -482,10 +482,10 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="2" t="n">
         <v>598687</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>1146083</v>
       </c>
     </row>
@@ -521,10 +521,10 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="2" t="n">
         <v>3144765</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>3091791</v>
       </c>
     </row>
@@ -573,17 +573,15 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -617,10 +615,10 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>24017099</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="2" t="n">
+        <v>240170.99</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>249538.28</v>
       </c>
     </row>
@@ -645,10 +643,10 @@
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="2" t="n">
         <v>1012860683.95</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="2" t="n">
         <v>908282874.17</v>
       </c>
     </row>
@@ -701,10 +699,10 @@
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="2" t="n">
         <v>11.32</v>
       </c>
     </row>
@@ -740,10 +738,10 @@
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="2" t="n">
         <v>6665036.45</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="2" t="n">
         <v>854128.61</v>
       </c>
     </row>
@@ -776,10 +774,10 @@
       <c r="B28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="2" t="n">
         <v>7961545.51</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="2" t="n">
         <v>3332611.69</v>
       </c>
     </row>
@@ -787,10 +785,10 @@
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="2" t="n">
         <v>2303044.21</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="2" t="n">
         <v>1443144.82</v>
       </c>
     </row>
